--- a/PayrollProject/templates/CourtOrderPAEO2003FineInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderPAEO2003FineInputSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\Provar\NewPeopleXCDPayroll\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4663CDB4-9FCA-4C8D-AB48-42C400A45E28}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E325C7-2350-4FF0-89BA-AF4D82A317C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>EmpName</t>
   </si>
@@ -79,7 +79,13 @@
     <t>PAEO2003fine_Payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTMN PAEO2003Fine</t>
+    <t>DO NOT PAEO2003FineOct</t>
+  </si>
+  <si>
+    <t>DO NOT PAEO2003FineNov</t>
+  </si>
+  <si>
+    <t>DO NOT PAEO2003FineDec</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,9 +492,10 @@
     <col min="5" max="5" width="30.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" customWidth="1"/>
+    <col min="8" max="8" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -533,11 +540,12 @@
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{A1AA857D-2A46-4BCF-80F7-C81D52FAD5E3}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m0O00000npbaCQAQ" xr:uid="{6AC08176-7198-4D52-AA7F-63A79662DAF8}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m0O00000npbaCQAQ" xr:uid="{6AC08176-7198-4D52-AA7F-63A79662DAF8}"/>
+    <hyperlink ref="G2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{F7CF091C-9D7F-459D-9068-0AA43FBAB175}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -548,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,13 +614,12 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{2A72D3AC-6741-4325-BE86-42C8A2782DC7}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m0O00000npbaCQAQ" xr:uid="{722A9F46-0D13-422D-BEE0-A40A455091A2}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m0O00000npbaCQAQ" xr:uid="{722A9F46-0D13-422D-BEE0-A40A455091A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -622,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB080A-92DF-4846-AF59-D028CA8F2A66}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,15 +687,14 @@
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{047BAA40-002A-4FA5-916E-1C35D710F457}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m0O00000npbaCQAQ" xr:uid="{EA77A9D0-BA14-473B-A10B-27F180562EDE}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m0O00000npbaCQAQ" xr:uid="{EA77A9D0-BA14-473B-A10B-27F180562EDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>